--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2342.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2342.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133216833672499</v>
+        <v>0.4101661145687103</v>
       </c>
       <c r="B1">
-        <v>1.79032945217727</v>
+        <v>0.3308739364147186</v>
       </c>
       <c r="C1">
-        <v>4.074473468158472</v>
+        <v>0.2917959690093994</v>
       </c>
       <c r="D1">
-        <v>2.296111241864127</v>
+        <v>0.318186491727829</v>
       </c>
       <c r="E1">
-        <v>0.8821161826532344</v>
+        <v>0.390886127948761</v>
       </c>
     </row>
   </sheetData>
